--- a/Scripts/Sucursales sincronizadas.xlsx
+++ b/Scripts/Sucursales sincronizadas.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKYNET\Documents\GitHub\SES_reportes\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JORGE\Documents\GitHub\SES_reportes\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DC849-F2BE-4ED8-B113-728C6D4C79B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Base datos Jorge</t>
   </si>
@@ -45,12 +46,45 @@
   </si>
   <si>
     <t>Morelos</t>
+  </si>
+  <si>
+    <t>sarabiaII</t>
+  </si>
+  <si>
+    <t>FcoVilla</t>
+  </si>
+  <si>
+    <t>Costarica</t>
+  </si>
+  <si>
+    <t>estocolmo</t>
+  </si>
+  <si>
+    <t>calzada</t>
+  </si>
+  <si>
+    <t>faltantes</t>
+  </si>
+  <si>
+    <t>almacen</t>
+  </si>
+  <si>
+    <t>lombardia</t>
+  </si>
+  <si>
+    <t>los reyes</t>
+  </si>
+  <si>
+    <t>paseo</t>
+  </si>
+  <si>
+    <t>sarabia1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,35 +411,80 @@
     <col min="5" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:D5"/>
+  <autoFilter ref="C2:E2" xr:uid="{64F7A99F-4392-4972-8FED-6B2C559EE1BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>